--- a/Trial Version/First Test using Pandas and Pyautogui/Test0.1.xlsx
+++ b/Trial Version/First Test using Pandas and Pyautogui/Test0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santacruzdistribuidora-my.sharepoint.com/personal/vinicius_almeida_gruposc_com_br/Documents/Documentos/PycharmProjects/RPA/Trial Version/First Test using Pandas and Pyautogui/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinicius.almeida\OneDrive - DISTRIBUIDORA DE MEDICAMENTOS SANTA CRUZ LTDA\Documentos\PycharmProjects\RPA\Trial Version\First Test using Pandas and Pyautogui\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -371,7 +371,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,6 +408,9 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
@@ -647,16 +650,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EDAE75-60E5-4A74-96BE-14BDA5009238}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1403520b-a90b-4c50-b36b-07d0abd0460b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1403520b-a90b-4c50-b36b-07d0abd0460b"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7a4cb89e-0dcd-4fac-972d-6428dc4a4f83"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
